--- a/data/Data_New York City.xlsx
+++ b/data/Data_New York City.xlsx
@@ -833,119 +833,119 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>736</v>
+        <v>32</v>
       </c>
       <c r="B34" t="n">
         <v>275</v>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>3.5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>737</v>
+        <v>33</v>
       </c>
       <c r="B35" t="n">
         <v>275</v>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>738</v>
+        <v>34</v>
       </c>
       <c r="B36" t="n">
         <v>275</v>
       </c>
       <c r="C36" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>4.5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>739</v>
+        <v>35</v>
       </c>
       <c r="B37" t="n">
         <v>275</v>
       </c>
       <c r="C37" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>740</v>
+        <v>36</v>
       </c>
       <c r="B38" t="n">
         <v>275</v>
       </c>
       <c r="C38" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D38" t="n">
-        <v>5.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B39" t="n">
         <v>275</v>
       </c>
       <c r="C39" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>741</v>
+        <v>38</v>
       </c>
       <c r="B40" t="n">
         <v>275</v>
       </c>
       <c r="C40" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D40" t="n">
-        <v>6</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B41" t="n">
         <v>275</v>
       </c>
       <c r="C41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D41" t="n">
-        <v>43</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>742</v>
+        <v>40</v>
       </c>
       <c r="B42" t="n">
         <v>275</v>
@@ -954,12 +954,12 @@
         <v>11</v>
       </c>
       <c r="D42" t="n">
-        <v>6.5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B43" t="n">
         <v>275</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B44" t="n">
         <v>275</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B45" t="n">
         <v>275</v>
@@ -1001,7 +1001,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B46" t="n">
         <v>275</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B47" t="n">
         <v>275</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B48" t="n">
         <v>275</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B49" t="n">
         <v>275</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B50" t="n">
         <v>275</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B51" t="n">
         <v>275</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B52" t="n">
         <v>275</v>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B53" t="n">
         <v>275</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B54" t="n">
         <v>275</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B55" t="n">
         <v>276</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B56" t="n">
         <v>276</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B57" t="n">
         <v>276</v>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B58" t="n">
         <v>276</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B59" t="n">
         <v>276</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B60" t="n">
         <v>276</v>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B61" t="n">
         <v>276</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B62" t="n">
         <v>276</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B63" t="n">
         <v>276</v>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B64" t="n">
         <v>276</v>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B65" t="n">
         <v>276</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B66" t="n">
         <v>276</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B67" t="n">
         <v>276</v>
@@ -1309,7 +1309,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B68" t="n">
         <v>276</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B69" t="n">
         <v>276</v>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B70" t="n">
         <v>276</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B71" t="n">
         <v>276</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B72" t="n">
         <v>276</v>
@@ -1379,7 +1379,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B73" t="n">
         <v>276</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B74" t="n">
         <v>276</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B75" t="n">
         <v>276</v>
@@ -1421,7 +1421,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B76" t="n">
         <v>276</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B77" t="n">
         <v>276</v>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B78" t="n">
         <v>276</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B79" t="n">
         <v>277</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B80" t="n">
         <v>277</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B81" t="n">
         <v>277</v>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B82" t="n">
         <v>277</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B83" t="n">
         <v>277</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B84" t="n">
         <v>277</v>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B85" t="n">
         <v>277</v>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B86" t="n">
         <v>277</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B87" t="n">
         <v>277</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B88" t="n">
         <v>277</v>
@@ -1603,133 +1603,133 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B89" t="n">
         <v>277</v>
       </c>
       <c r="C89" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D89" t="n">
-        <v>11</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B90" t="n">
         <v>277</v>
       </c>
       <c r="C90" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D90" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B91" t="n">
         <v>277</v>
       </c>
       <c r="C91" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D91" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B92" t="n">
         <v>277</v>
       </c>
       <c r="C92" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D92" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B93" t="n">
         <v>277</v>
       </c>
       <c r="C93" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D93" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B94" t="n">
         <v>277</v>
       </c>
       <c r="C94" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D94" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B95" t="n">
         <v>277</v>
       </c>
       <c r="C95" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D95" t="n">
-        <v>85</v>
+        <v>57</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B96" t="n">
         <v>277</v>
       </c>
       <c r="C96" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D96" t="n">
-        <v>108</v>
+        <v>85</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B97" t="n">
         <v>277</v>
       </c>
       <c r="C97" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D97" t="n">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>743</v>
+        <v>96</v>
       </c>
       <c r="B98" t="n">
         <v>277</v>
@@ -1738,12 +1738,12 @@
         <v>19</v>
       </c>
       <c r="D98" t="n">
-        <v>12.5</v>
+        <v>125</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B99" t="n">
         <v>277</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B100" t="n">
         <v>277</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B101" t="n">
         <v>277</v>
@@ -1785,7 +1785,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B102" t="n">
         <v>277</v>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B103" t="n">
         <v>278</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B104" t="n">
         <v>278</v>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B105" t="n">
         <v>278</v>
@@ -1841,7 +1841,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B106" t="n">
         <v>278</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B107" t="n">
         <v>278</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B108" t="n">
         <v>278</v>
@@ -1883,7 +1883,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B109" t="n">
         <v>278</v>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B110" t="n">
         <v>278</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B111" t="n">
         <v>278</v>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B112" t="n">
         <v>278</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B113" t="n">
         <v>278</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B114" t="n">
         <v>278</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B115" t="n">
         <v>278</v>
@@ -1981,7 +1981,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B116" t="n">
         <v>278</v>
@@ -1995,7 +1995,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B117" t="n">
         <v>278</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B118" t="n">
         <v>278</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B119" t="n">
         <v>278</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B120" t="n">
         <v>278</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B121" t="n">
         <v>278</v>
@@ -2065,7 +2065,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B122" t="n">
         <v>278</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B123" t="n">
         <v>278</v>
@@ -2093,7 +2093,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B124" t="n">
         <v>278</v>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B125" t="n">
         <v>278</v>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B126" t="n">
         <v>278</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B127" t="n">
         <v>279</v>
@@ -2149,7 +2149,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B128" t="n">
         <v>279</v>
@@ -2163,7 +2163,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B129" t="n">
         <v>279</v>
@@ -2177,7 +2177,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B130" t="n">
         <v>279</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B131" t="n">
         <v>279</v>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B132" t="n">
         <v>279</v>
@@ -2219,7 +2219,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B133" t="n">
         <v>279</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B134" t="n">
         <v>279</v>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B135" t="n">
         <v>279</v>
@@ -2261,7 +2261,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B136" t="n">
         <v>279</v>
@@ -2275,7 +2275,7 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B137" t="n">
         <v>279</v>
@@ -2289,7 +2289,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B138" t="n">
         <v>279</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B139" t="n">
         <v>279</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B140" t="n">
         <v>279</v>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B141" t="n">
         <v>279</v>
@@ -2345,7 +2345,7 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B142" t="n">
         <v>279</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B143" t="n">
         <v>279</v>
@@ -2373,7 +2373,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B144" t="n">
         <v>279</v>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B145" t="n">
         <v>279</v>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B146" t="n">
         <v>279</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B147" t="n">
         <v>279</v>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B148" t="n">
         <v>279</v>
@@ -2443,7 +2443,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B149" t="n">
         <v>279</v>
@@ -2457,7 +2457,7 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B150" t="n">
         <v>279</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B151" t="n">
         <v>280</v>
@@ -2485,7 +2485,7 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B152" t="n">
         <v>280</v>
@@ -2499,7 +2499,7 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B153" t="n">
         <v>280</v>
@@ -2513,7 +2513,7 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B154" t="n">
         <v>280</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B155" t="n">
         <v>280</v>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B156" t="n">
         <v>280</v>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B157" t="n">
         <v>280</v>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B158" t="n">
         <v>280</v>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B159" t="n">
         <v>280</v>
@@ -2597,7 +2597,7 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B160" t="n">
         <v>280</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B161" t="n">
         <v>280</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B162" t="n">
         <v>280</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B163" t="n">
         <v>280</v>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B164" t="n">
         <v>280</v>
@@ -2667,7 +2667,7 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B165" t="n">
         <v>280</v>
@@ -2681,7 +2681,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B166" t="n">
         <v>280</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B167" t="n">
         <v>280</v>
@@ -2709,7 +2709,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B168" t="n">
         <v>280</v>
@@ -2723,7 +2723,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B169" t="n">
         <v>280</v>
@@ -2737,7 +2737,7 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B170" t="n">
         <v>280</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B171" t="n">
         <v>280</v>
@@ -2765,7 +2765,7 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B172" t="n">
         <v>280</v>
@@ -2779,7 +2779,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B173" t="n">
         <v>280</v>
@@ -2793,7 +2793,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B174" t="n">
         <v>280</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B175" t="n">
         <v>281</v>
@@ -2821,7 +2821,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B176" t="n">
         <v>281</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B177" t="n">
         <v>281</v>
@@ -2849,7 +2849,7 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B178" t="n">
         <v>281</v>
@@ -2863,7 +2863,7 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B179" t="n">
         <v>281</v>
@@ -2877,7 +2877,7 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B180" t="n">
         <v>281</v>
@@ -2891,7 +2891,7 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B181" t="n">
         <v>281</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B182" t="n">
         <v>281</v>
@@ -2919,7 +2919,7 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B183" t="n">
         <v>281</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B184" t="n">
         <v>281</v>
@@ -2947,7 +2947,7 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B185" t="n">
         <v>281</v>
@@ -2961,7 +2961,7 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B186" t="n">
         <v>281</v>
@@ -2975,7 +2975,7 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B187" t="n">
         <v>281</v>
@@ -2989,7 +2989,7 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B188" t="n">
         <v>281</v>
@@ -3003,7 +3003,7 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B189" t="n">
         <v>281</v>
@@ -3017,7 +3017,7 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B190" t="n">
         <v>281</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B191" t="n">
         <v>281</v>
@@ -3045,7 +3045,7 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B192" t="n">
         <v>281</v>
@@ -3059,7 +3059,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B193" t="n">
         <v>281</v>
@@ -3073,7 +3073,7 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B194" t="n">
         <v>281</v>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B195" t="n">
         <v>281</v>
@@ -3101,7 +3101,7 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B196" t="n">
         <v>281</v>
@@ -3115,7 +3115,7 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B197" t="n">
         <v>281</v>
@@ -3129,7 +3129,7 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B198" t="n">
         <v>281</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B199" t="n">
         <v>282</v>
@@ -3157,7 +3157,7 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B200" t="n">
         <v>282</v>
@@ -3171,7 +3171,7 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B201" t="n">
         <v>282</v>
@@ -3185,7 +3185,7 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B202" t="n">
         <v>282</v>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B203" t="n">
         <v>282</v>
@@ -3213,7 +3213,7 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B204" t="n">
         <v>282</v>
@@ -3227,7 +3227,7 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B205" t="n">
         <v>282</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B206" t="n">
         <v>282</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B207" t="n">
         <v>282</v>
@@ -3269,7 +3269,7 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B208" t="n">
         <v>282</v>
@@ -3283,7 +3283,7 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B209" t="n">
         <v>282</v>
@@ -3297,7 +3297,7 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B210" t="n">
         <v>282</v>
@@ -3311,7 +3311,7 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B211" t="n">
         <v>282</v>
@@ -3325,7 +3325,7 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B212" t="n">
         <v>282</v>
@@ -3339,7 +3339,7 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B213" t="n">
         <v>282</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B214" t="n">
         <v>282</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B215" t="n">
         <v>282</v>
@@ -3381,7 +3381,7 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B216" t="n">
         <v>282</v>
@@ -3395,7 +3395,7 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B217" t="n">
         <v>282</v>
@@ -3409,7 +3409,7 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B218" t="n">
         <v>282</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B219" t="n">
         <v>282</v>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B220" t="n">
         <v>282</v>
@@ -3451,7 +3451,7 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B221" t="n">
         <v>282</v>
@@ -3465,7 +3465,7 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B222" t="n">
         <v>282</v>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B223" t="n">
         <v>283</v>
@@ -3493,7 +3493,7 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B224" t="n">
         <v>283</v>
@@ -3507,7 +3507,7 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B225" t="n">
         <v>283</v>
@@ -3521,7 +3521,7 @@
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B226" t="n">
         <v>283</v>
@@ -3535,7 +3535,7 @@
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B227" t="n">
         <v>283</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B228" t="n">
         <v>283</v>
@@ -3563,7 +3563,7 @@
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B229" t="n">
         <v>283</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B230" t="n">
         <v>283</v>
@@ -3591,7 +3591,7 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B231" t="n">
         <v>283</v>
@@ -3605,7 +3605,7 @@
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B232" t="n">
         <v>283</v>
@@ -3619,7 +3619,7 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B233" t="n">
         <v>283</v>
@@ -3633,7 +3633,7 @@
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B234" t="n">
         <v>283</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B235" t="n">
         <v>283</v>
@@ -3661,7 +3661,7 @@
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B236" t="n">
         <v>283</v>
@@ -3675,7 +3675,7 @@
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B237" t="n">
         <v>283</v>
@@ -3689,7 +3689,7 @@
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B238" t="n">
         <v>283</v>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B239" t="n">
         <v>283</v>
@@ -3717,7 +3717,7 @@
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B240" t="n">
         <v>283</v>
@@ -3731,7 +3731,7 @@
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B241" t="n">
         <v>283</v>
@@ -3745,7 +3745,7 @@
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B242" t="n">
         <v>283</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B243" t="n">
         <v>283</v>
@@ -3773,7 +3773,7 @@
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B244" t="n">
         <v>283</v>
@@ -3787,7 +3787,7 @@
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B245" t="n">
         <v>283</v>
@@ -3801,7 +3801,7 @@
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B246" t="n">
         <v>283</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B247" t="n">
         <v>284</v>
@@ -3829,7 +3829,7 @@
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B248" t="n">
         <v>284</v>
@@ -3843,7 +3843,7 @@
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B249" t="n">
         <v>284</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B250" t="n">
         <v>284</v>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B251" t="n">
         <v>284</v>
@@ -3885,7 +3885,7 @@
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B252" t="n">
         <v>284</v>
@@ -3899,7 +3899,7 @@
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="B253" t="n">
         <v>284</v>
@@ -3913,7 +3913,7 @@
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B254" t="n">
         <v>284</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B255" t="n">
         <v>284</v>
@@ -3941,7 +3941,7 @@
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B256" t="n">
         <v>284</v>
@@ -3955,7 +3955,7 @@
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B257" t="n">
         <v>284</v>
@@ -3969,7 +3969,7 @@
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B258" t="n">
         <v>284</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B259" t="n">
         <v>284</v>
@@ -3997,7 +3997,7 @@
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B260" t="n">
         <v>284</v>
@@ -4011,7 +4011,7 @@
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B261" t="n">
         <v>284</v>
@@ -4025,7 +4025,7 @@
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B262" t="n">
         <v>284</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B263" t="n">
         <v>284</v>
@@ -4053,7 +4053,7 @@
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B264" t="n">
         <v>284</v>
@@ -4067,7 +4067,7 @@
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B265" t="n">
         <v>284</v>
@@ -4081,7 +4081,7 @@
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B266" t="n">
         <v>284</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B267" t="n">
         <v>284</v>
@@ -4109,7 +4109,7 @@
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B268" t="n">
         <v>284</v>
@@ -4123,7 +4123,7 @@
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B269" t="n">
         <v>284</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B270" t="n">
         <v>284</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B271" t="n">
         <v>285</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B272" t="n">
         <v>285</v>
@@ -4179,7 +4179,7 @@
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B273" t="n">
         <v>285</v>
@@ -4193,7 +4193,7 @@
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B274" t="n">
         <v>285</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="B275" t="n">
         <v>285</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B276" t="n">
         <v>285</v>
@@ -4235,7 +4235,7 @@
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B277" t="n">
         <v>285</v>
@@ -4249,7 +4249,7 @@
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B278" t="n">
         <v>285</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B279" t="n">
         <v>285</v>
@@ -4277,7 +4277,7 @@
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B280" t="n">
         <v>285</v>
@@ -4291,7 +4291,7 @@
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B281" t="n">
         <v>285</v>
@@ -4305,7 +4305,7 @@
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B282" t="n">
         <v>285</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="B283" t="n">
         <v>285</v>
@@ -4333,7 +4333,7 @@
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B284" t="n">
         <v>285</v>
@@ -4347,7 +4347,7 @@
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B285" t="n">
         <v>285</v>
@@ -4361,7 +4361,7 @@
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B286" t="n">
         <v>285</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B287" t="n">
         <v>285</v>
@@ -4389,7 +4389,7 @@
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B288" t="n">
         <v>285</v>
@@ -4403,7 +4403,7 @@
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B289" t="n">
         <v>285</v>
@@ -4417,7 +4417,7 @@
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B290" t="n">
         <v>285</v>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B291" t="n">
         <v>285</v>
@@ -4445,7 +4445,7 @@
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B292" t="n">
         <v>285</v>
@@ -4459,7 +4459,7 @@
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B293" t="n">
         <v>285</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B294" t="n">
         <v>285</v>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B295" t="n">
         <v>286</v>
@@ -4501,7 +4501,7 @@
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B296" t="n">
         <v>286</v>
@@ -4515,7 +4515,7 @@
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B297" t="n">
         <v>286</v>
@@ -4529,7 +4529,7 @@
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B298" t="n">
         <v>286</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B299" t="n">
         <v>286</v>
@@ -4557,7 +4557,7 @@
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="B300" t="n">
         <v>286</v>
@@ -4571,7 +4571,7 @@
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B301" t="n">
         <v>286</v>
@@ -4585,7 +4585,7 @@
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B302" t="n">
         <v>286</v>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B303" t="n">
         <v>286</v>
@@ -4613,7 +4613,7 @@
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B304" t="n">
         <v>286</v>
@@ -4627,7 +4627,7 @@
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B305" t="n">
         <v>286</v>
@@ -4641,7 +4641,7 @@
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B306" t="n">
         <v>286</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="B307" t="n">
         <v>286</v>
@@ -4669,7 +4669,7 @@
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B308" t="n">
         <v>286</v>
@@ -4683,7 +4683,7 @@
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="B309" t="n">
         <v>286</v>
@@ -4697,7 +4697,7 @@
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B310" t="n">
         <v>286</v>
@@ -4711,7 +4711,7 @@
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B311" t="n">
         <v>286</v>
@@ -4725,7 +4725,7 @@
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B312" t="n">
         <v>286</v>
@@ -4739,7 +4739,7 @@
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B313" t="n">
         <v>286</v>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B314" t="n">
         <v>286</v>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B315" t="n">
         <v>286</v>
@@ -4781,7 +4781,7 @@
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B316" t="n">
         <v>286</v>
@@ -4795,7 +4795,7 @@
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B317" t="n">
         <v>286</v>
@@ -4809,7 +4809,7 @@
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B318" t="n">
         <v>286</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B319" t="n">
         <v>287</v>
@@ -4837,7 +4837,7 @@
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B320" t="n">
         <v>287</v>
@@ -4851,7 +4851,7 @@
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B321" t="n">
         <v>287</v>
@@ -4865,7 +4865,7 @@
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B322" t="n">
         <v>287</v>
@@ -4879,7 +4879,7 @@
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B323" t="n">
         <v>287</v>
@@ -4893,7 +4893,7 @@
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B324" t="n">
         <v>287</v>
@@ -4907,7 +4907,7 @@
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="B325" t="n">
         <v>287</v>
@@ -4921,7 +4921,7 @@
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B326" t="n">
         <v>287</v>
@@ -4935,7 +4935,7 @@
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B327" t="n">
         <v>287</v>
@@ -4949,7 +4949,7 @@
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B328" t="n">
         <v>287</v>
@@ -4963,7 +4963,7 @@
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B329" t="n">
         <v>287</v>
@@ -4977,7 +4977,7 @@
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B330" t="n">
         <v>287</v>
@@ -4991,7 +4991,7 @@
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="B331" t="n">
         <v>287</v>
@@ -5005,7 +5005,7 @@
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B332" t="n">
         <v>287</v>
@@ -5019,7 +5019,7 @@
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B333" t="n">
         <v>287</v>
@@ -5033,7 +5033,7 @@
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B334" t="n">
         <v>287</v>
@@ -5047,7 +5047,7 @@
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B335" t="n">
         <v>287</v>
@@ -5061,7 +5061,7 @@
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B336" t="n">
         <v>287</v>
@@ -5075,7 +5075,7 @@
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B337" t="n">
         <v>287</v>
@@ -5089,7 +5089,7 @@
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="B338" t="n">
         <v>287</v>
@@ -5103,7 +5103,7 @@
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="B339" t="n">
         <v>287</v>
@@ -5117,7 +5117,7 @@
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="B340" t="n">
         <v>287</v>
@@ -5131,7 +5131,7 @@
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B341" t="n">
         <v>287</v>
@@ -5145,7 +5145,7 @@
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="B342" t="n">
         <v>287</v>
@@ -5159,7 +5159,7 @@
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B343" t="n">
         <v>288</v>
@@ -5173,7 +5173,7 @@
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="B344" t="n">
         <v>288</v>
@@ -5187,7 +5187,7 @@
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="B345" t="n">
         <v>288</v>
@@ -5201,7 +5201,7 @@
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="B346" t="n">
         <v>288</v>
@@ -5215,7 +5215,7 @@
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="B347" t="n">
         <v>288</v>
@@ -5229,7 +5229,7 @@
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B348" t="n">
         <v>288</v>
@@ -5243,7 +5243,7 @@
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B349" t="n">
         <v>288</v>
@@ -5257,7 +5257,7 @@
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="B350" t="n">
         <v>288</v>
@@ -5271,7 +5271,7 @@
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="B351" t="n">
         <v>288</v>
@@ -5285,7 +5285,7 @@
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="B352" t="n">
         <v>288</v>
@@ -5299,7 +5299,7 @@
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B353" t="n">
         <v>288</v>
@@ -5313,7 +5313,7 @@
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B354" t="n">
         <v>288</v>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B355" t="n">
         <v>288</v>
@@ -5341,7 +5341,7 @@
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B356" t="n">
         <v>288</v>
@@ -5355,7 +5355,7 @@
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B357" t="n">
         <v>288</v>
@@ -5369,7 +5369,7 @@
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="B358" t="n">
         <v>288</v>
@@ -5383,7 +5383,7 @@
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B359" t="n">
         <v>288</v>
@@ -5397,7 +5397,7 @@
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B360" t="n">
         <v>288</v>
@@ -5411,7 +5411,7 @@
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B361" t="n">
         <v>288</v>
@@ -5425,7 +5425,7 @@
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B362" t="n">
         <v>288</v>
@@ -5439,7 +5439,7 @@
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="B363" t="n">
         <v>288</v>
@@ -5453,7 +5453,7 @@
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="B364" t="n">
         <v>288</v>
@@ -5467,7 +5467,7 @@
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B365" t="n">
         <v>288</v>
@@ -5481,7 +5481,7 @@
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="B366" t="n">
         <v>288</v>
@@ -5495,7 +5495,7 @@
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B367" t="n">
         <v>289</v>
@@ -5509,7 +5509,7 @@
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B368" t="n">
         <v>289</v>
@@ -5523,7 +5523,7 @@
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B369" t="n">
         <v>289</v>
@@ -5537,7 +5537,7 @@
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="B370" t="n">
         <v>289</v>
@@ -5551,7 +5551,7 @@
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B371" t="n">
         <v>289</v>
@@ -5565,7 +5565,7 @@
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="B372" t="n">
         <v>289</v>
@@ -5579,7 +5579,7 @@
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="B373" t="n">
         <v>289</v>
@@ -5593,7 +5593,7 @@
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B374" t="n">
         <v>289</v>
@@ -5607,7 +5607,7 @@
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="B375" t="n">
         <v>289</v>
@@ -5621,7 +5621,7 @@
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="B376" t="n">
         <v>289</v>
@@ -5635,7 +5635,7 @@
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="B377" t="n">
         <v>289</v>
@@ -5649,7 +5649,7 @@
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="B378" t="n">
         <v>289</v>
@@ -5663,7 +5663,7 @@
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B379" t="n">
         <v>289</v>
@@ -5677,7 +5677,7 @@
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B380" t="n">
         <v>289</v>
@@ -5691,7 +5691,7 @@
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="B381" t="n">
         <v>289</v>
@@ -5705,7 +5705,7 @@
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="B382" t="n">
         <v>289</v>
@@ -5719,7 +5719,7 @@
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="B383" t="n">
         <v>289</v>
@@ -5733,7 +5733,7 @@
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="B384" t="n">
         <v>289</v>
@@ -5747,7 +5747,7 @@
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="B385" t="n">
         <v>289</v>
@@ -5761,7 +5761,7 @@
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B386" t="n">
         <v>289</v>
@@ -5775,7 +5775,7 @@
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B387" t="n">
         <v>289</v>
@@ -5789,7 +5789,7 @@
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B388" t="n">
         <v>289</v>
@@ -5803,7 +5803,7 @@
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B389" t="n">
         <v>289</v>
@@ -5817,7 +5817,7 @@
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="B390" t="n">
         <v>289</v>
@@ -5831,7 +5831,7 @@
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B391" t="n">
         <v>290</v>
@@ -5845,7 +5845,7 @@
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B392" t="n">
         <v>290</v>
@@ -5859,7 +5859,7 @@
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="B393" t="n">
         <v>290</v>
@@ -5873,7 +5873,7 @@
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="B394" t="n">
         <v>290</v>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="B395" t="n">
         <v>290</v>
@@ -5901,7 +5901,7 @@
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="B396" t="n">
         <v>290</v>
@@ -5915,7 +5915,7 @@
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="B397" t="n">
         <v>290</v>
@@ -5929,7 +5929,7 @@
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="B398" t="n">
         <v>290</v>
@@ -5943,7 +5943,7 @@
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="B399" t="n">
         <v>290</v>
@@ -5957,7 +5957,7 @@
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="B400" t="n">
         <v>290</v>
@@ -5971,7 +5971,7 @@
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="B401" t="n">
         <v>290</v>
@@ -5985,7 +5985,7 @@
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="B402" t="n">
         <v>290</v>
@@ -5999,7 +5999,7 @@
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="B403" t="n">
         <v>290</v>
@@ -6013,7 +6013,7 @@
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="B404" t="n">
         <v>290</v>
@@ -6027,7 +6027,7 @@
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="B405" t="n">
         <v>290</v>
@@ -6041,7 +6041,7 @@
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B406" t="n">
         <v>290</v>
@@ -6055,7 +6055,7 @@
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="B407" t="n">
         <v>290</v>
@@ -6069,7 +6069,7 @@
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="B408" t="n">
         <v>290</v>
@@ -6083,7 +6083,7 @@
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="B409" t="n">
         <v>290</v>
@@ -6097,7 +6097,7 @@
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B410" t="n">
         <v>290</v>
@@ -6111,7 +6111,7 @@
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="B411" t="n">
         <v>290</v>
@@ -6125,7 +6125,7 @@
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="B412" t="n">
         <v>290</v>
@@ -6139,7 +6139,7 @@
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="B413" t="n">
         <v>290</v>
@@ -6153,7 +6153,7 @@
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="B414" t="n">
         <v>290</v>
@@ -6167,7 +6167,7 @@
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="B415" t="n">
         <v>291</v>
@@ -6181,7 +6181,7 @@
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="B416" t="n">
         <v>291</v>
@@ -6195,7 +6195,7 @@
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="B417" t="n">
         <v>291</v>
@@ -6209,7 +6209,7 @@
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="B418" t="n">
         <v>291</v>
@@ -6223,7 +6223,7 @@
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B419" t="n">
         <v>291</v>
@@ -6237,7 +6237,7 @@
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="B420" t="n">
         <v>291</v>
@@ -6251,7 +6251,7 @@
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="B421" t="n">
         <v>291</v>
@@ -6265,7 +6265,7 @@
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="B422" t="n">
         <v>291</v>
@@ -6279,7 +6279,7 @@
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="B423" t="n">
         <v>291</v>
@@ -6293,7 +6293,7 @@
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="B424" t="n">
         <v>291</v>
@@ -6307,7 +6307,7 @@
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="B425" t="n">
         <v>291</v>
@@ -6321,7 +6321,7 @@
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="B426" t="n">
         <v>291</v>
@@ -6335,7 +6335,7 @@
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="B427" t="n">
         <v>291</v>
@@ -6349,7 +6349,7 @@
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B428" t="n">
         <v>291</v>
@@ -6363,7 +6363,7 @@
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="B429" t="n">
         <v>291</v>
@@ -6377,7 +6377,7 @@
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="B430" t="n">
         <v>291</v>
@@ -6391,7 +6391,7 @@
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="B431" t="n">
         <v>291</v>
@@ -6405,7 +6405,7 @@
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="B432" t="n">
         <v>291</v>
@@ -6419,7 +6419,7 @@
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="B433" t="n">
         <v>291</v>
@@ -6433,7 +6433,7 @@
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="B434" t="n">
         <v>291</v>
@@ -6447,7 +6447,7 @@
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="B435" t="n">
         <v>291</v>
@@ -6461,7 +6461,7 @@
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="B436" t="n">
         <v>291</v>
@@ -6475,7 +6475,7 @@
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="B437" t="n">
         <v>291</v>
@@ -6489,7 +6489,7 @@
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="B438" t="n">
         <v>291</v>
@@ -6503,7 +6503,7 @@
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="B439" t="n">
         <v>292</v>
@@ -6517,7 +6517,7 @@
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="B440" t="n">
         <v>292</v>
@@ -6531,7 +6531,7 @@
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="B441" t="n">
         <v>292</v>
@@ -6545,7 +6545,7 @@
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="B442" t="n">
         <v>292</v>
@@ -6559,7 +6559,7 @@
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="B443" t="n">
         <v>292</v>
@@ -6573,7 +6573,7 @@
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="B444" t="n">
         <v>292</v>
@@ -6587,7 +6587,7 @@
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="B445" t="n">
         <v>292</v>
@@ -6601,7 +6601,7 @@
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="B446" t="n">
         <v>292</v>
@@ -6615,7 +6615,7 @@
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="B447" t="n">
         <v>292</v>
@@ -6629,7 +6629,7 @@
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="B448" t="n">
         <v>292</v>
@@ -6643,7 +6643,7 @@
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="B449" t="n">
         <v>292</v>
@@ -6657,7 +6657,7 @@
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="B450" t="n">
         <v>292</v>
@@ -6671,7 +6671,7 @@
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="B451" t="n">
         <v>292</v>
@@ -6685,7 +6685,7 @@
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="B452" t="n">
         <v>292</v>
@@ -6699,7 +6699,7 @@
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="B453" t="n">
         <v>292</v>
@@ -6713,7 +6713,7 @@
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B454" t="n">
         <v>292</v>
@@ -6727,7 +6727,7 @@
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="B455" t="n">
         <v>292</v>
@@ -6741,7 +6741,7 @@
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B456" t="n">
         <v>292</v>
@@ -6755,7 +6755,7 @@
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="B457" t="n">
         <v>292</v>
@@ -6769,7 +6769,7 @@
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="B458" t="n">
         <v>292</v>
@@ -6783,7 +6783,7 @@
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="B459" t="n">
         <v>292</v>
@@ -6797,7 +6797,7 @@
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="B460" t="n">
         <v>292</v>
@@ -6811,7 +6811,7 @@
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="B461" t="n">
         <v>292</v>
@@ -6825,7 +6825,7 @@
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="B462" t="n">
         <v>292</v>
@@ -6839,7 +6839,7 @@
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="B463" t="n">
         <v>293</v>
@@ -6853,7 +6853,7 @@
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="B464" t="n">
         <v>293</v>
@@ -6867,7 +6867,7 @@
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="B465" t="n">
         <v>293</v>
@@ -6881,7 +6881,7 @@
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="B466" t="n">
         <v>293</v>
@@ -6895,7 +6895,7 @@
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="B467" t="n">
         <v>293</v>
@@ -6909,7 +6909,7 @@
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="B468" t="n">
         <v>293</v>
@@ -6923,7 +6923,7 @@
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="B469" t="n">
         <v>293</v>
@@ -6937,7 +6937,7 @@
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="B470" t="n">
         <v>293</v>
@@ -6951,7 +6951,7 @@
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="B471" t="n">
         <v>293</v>
@@ -6965,7 +6965,7 @@
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="B472" t="n">
         <v>293</v>
@@ -6979,7 +6979,7 @@
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="B473" t="n">
         <v>293</v>
@@ -6993,7 +6993,7 @@
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="B474" t="n">
         <v>293</v>
@@ -7007,7 +7007,7 @@
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="B475" t="n">
         <v>293</v>
@@ -7021,7 +7021,7 @@
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="B476" t="n">
         <v>293</v>
@@ -7035,7 +7035,7 @@
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="B477" t="n">
         <v>293</v>
@@ -7049,7 +7049,7 @@
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="B478" t="n">
         <v>293</v>
@@ -7063,7 +7063,7 @@
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="B479" t="n">
         <v>293</v>
@@ -7077,7 +7077,7 @@
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="B480" t="n">
         <v>293</v>
@@ -7091,7 +7091,7 @@
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="B481" t="n">
         <v>293</v>
@@ -7105,7 +7105,7 @@
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="B482" t="n">
         <v>293</v>
@@ -7119,7 +7119,7 @@
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="B483" t="n">
         <v>293</v>
@@ -7133,7 +7133,7 @@
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="B484" t="n">
         <v>293</v>
@@ -7147,7 +7147,7 @@
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="B485" t="n">
         <v>293</v>
@@ -7161,7 +7161,7 @@
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="B486" t="n">
         <v>293</v>
@@ -7175,7 +7175,7 @@
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="B487" t="n">
         <v>294</v>
@@ -7189,7 +7189,7 @@
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="B488" t="n">
         <v>294</v>
@@ -7203,7 +7203,7 @@
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="B489" t="n">
         <v>294</v>
@@ -7217,7 +7217,7 @@
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="B490" t="n">
         <v>294</v>
@@ -7231,7 +7231,7 @@
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="B491" t="n">
         <v>294</v>
@@ -7245,7 +7245,7 @@
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="B492" t="n">
         <v>294</v>
@@ -7259,7 +7259,7 @@
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="B493" t="n">
         <v>294</v>
@@ -7273,7 +7273,7 @@
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="B494" t="n">
         <v>294</v>
@@ -7287,7 +7287,7 @@
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="B495" t="n">
         <v>294</v>
@@ -7301,7 +7301,7 @@
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="B496" t="n">
         <v>294</v>
@@ -7315,7 +7315,7 @@
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="B497" t="n">
         <v>294</v>
@@ -7329,7 +7329,7 @@
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="B498" t="n">
         <v>294</v>
@@ -7343,7 +7343,7 @@
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="B499" t="n">
         <v>294</v>
@@ -7357,7 +7357,7 @@
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="B500" t="n">
         <v>294</v>
@@ -7371,7 +7371,7 @@
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="B501" t="n">
         <v>294</v>
@@ -7385,7 +7385,7 @@
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="B502" t="n">
         <v>294</v>
@@ -7399,7 +7399,7 @@
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="B503" t="n">
         <v>294</v>
@@ -7413,7 +7413,7 @@
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="B504" t="n">
         <v>294</v>
@@ -7427,7 +7427,7 @@
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="B505" t="n">
         <v>294</v>
@@ -7441,7 +7441,7 @@
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="B506" t="n">
         <v>294</v>
@@ -7455,7 +7455,7 @@
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="B507" t="n">
         <v>294</v>
@@ -7469,7 +7469,7 @@
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="B508" t="n">
         <v>294</v>
@@ -7483,7 +7483,7 @@
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="B509" t="n">
         <v>294</v>
@@ -7497,7 +7497,7 @@
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="B510" t="n">
         <v>294</v>
@@ -7511,7 +7511,7 @@
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="B511" t="n">
         <v>295</v>
@@ -7525,7 +7525,7 @@
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="B512" t="n">
         <v>295</v>
@@ -7539,7 +7539,7 @@
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="B513" t="n">
         <v>295</v>
@@ -7553,7 +7553,7 @@
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="B514" t="n">
         <v>295</v>
@@ -7567,7 +7567,7 @@
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="B515" t="n">
         <v>295</v>
@@ -7581,7 +7581,7 @@
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="B516" t="n">
         <v>295</v>
@@ -7595,7 +7595,7 @@
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="B517" t="n">
         <v>295</v>
@@ -7609,7 +7609,7 @@
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="B518" t="n">
         <v>295</v>
@@ -7623,7 +7623,7 @@
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="B519" t="n">
         <v>295</v>
@@ -7637,7 +7637,7 @@
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="B520" t="n">
         <v>295</v>
@@ -7651,7 +7651,7 @@
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="B521" t="n">
         <v>295</v>
@@ -7665,7 +7665,7 @@
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="B522" t="n">
         <v>295</v>
@@ -7679,7 +7679,7 @@
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="B523" t="n">
         <v>295</v>
@@ -7693,7 +7693,7 @@
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="B524" t="n">
         <v>295</v>
@@ -7707,7 +7707,7 @@
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="B525" t="n">
         <v>295</v>
@@ -7721,7 +7721,7 @@
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="B526" t="n">
         <v>295</v>
@@ -7735,7 +7735,7 @@
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="B527" t="n">
         <v>295</v>
@@ -7749,7 +7749,7 @@
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="B528" t="n">
         <v>295</v>
@@ -7763,7 +7763,7 @@
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="B529" t="n">
         <v>295</v>
@@ -7777,7 +7777,7 @@
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="B530" t="n">
         <v>295</v>
@@ -7791,7 +7791,7 @@
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="B531" t="n">
         <v>295</v>
@@ -7805,7 +7805,7 @@
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B532" t="n">
         <v>295</v>
@@ -7819,7 +7819,7 @@
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="B533" t="n">
         <v>295</v>
@@ -7833,7 +7833,7 @@
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="B534" t="n">
         <v>295</v>
@@ -7847,7 +7847,7 @@
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="B535" t="n">
         <v>296</v>
@@ -7861,7 +7861,7 @@
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="B536" t="n">
         <v>296</v>
@@ -7875,7 +7875,7 @@
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="B537" t="n">
         <v>296</v>
@@ -7889,7 +7889,7 @@
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="B538" t="n">
         <v>296</v>
@@ -7903,7 +7903,7 @@
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="B539" t="n">
         <v>296</v>
@@ -7917,7 +7917,7 @@
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="B540" t="n">
         <v>296</v>
@@ -7931,7 +7931,7 @@
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="B541" t="n">
         <v>296</v>
@@ -7945,7 +7945,7 @@
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="B542" t="n">
         <v>296</v>
@@ -7959,7 +7959,7 @@
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="B543" t="n">
         <v>296</v>
@@ -7973,7 +7973,7 @@
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="B544" t="n">
         <v>296</v>
@@ -7987,7 +7987,7 @@
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="B545" t="n">
         <v>296</v>
@@ -8001,7 +8001,7 @@
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="B546" t="n">
         <v>296</v>
@@ -8015,7 +8015,7 @@
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="B547" t="n">
         <v>296</v>
@@ -8029,7 +8029,7 @@
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="B548" t="n">
         <v>296</v>
@@ -8043,7 +8043,7 @@
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="B549" t="n">
         <v>296</v>
@@ -8057,7 +8057,7 @@
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="B550" t="n">
         <v>296</v>
@@ -8071,7 +8071,7 @@
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="B551" t="n">
         <v>296</v>
@@ -8085,7 +8085,7 @@
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="B552" t="n">
         <v>296</v>
@@ -8099,7 +8099,7 @@
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="B553" t="n">
         <v>296</v>
@@ -8113,7 +8113,7 @@
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="B554" t="n">
         <v>296</v>
@@ -8127,7 +8127,7 @@
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="B555" t="n">
         <v>296</v>
@@ -8141,7 +8141,7 @@
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="B556" t="n">
         <v>296</v>
@@ -8155,7 +8155,7 @@
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="B557" t="n">
         <v>296</v>
@@ -8169,7 +8169,7 @@
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="B558" t="n">
         <v>296</v>
@@ -8183,7 +8183,7 @@
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="B559" t="n">
         <v>297</v>
@@ -8197,7 +8197,7 @@
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="B560" t="n">
         <v>297</v>
@@ -8211,7 +8211,7 @@
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="B561" t="n">
         <v>297</v>
@@ -8225,7 +8225,7 @@
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="B562" t="n">
         <v>297</v>
@@ -8239,7 +8239,7 @@
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="B563" t="n">
         <v>297</v>
@@ -8253,7 +8253,7 @@
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="B564" t="n">
         <v>297</v>
@@ -8267,7 +8267,7 @@
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="B565" t="n">
         <v>297</v>
@@ -8281,7 +8281,7 @@
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="B566" t="n">
         <v>297</v>
@@ -8295,7 +8295,7 @@
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="B567" t="n">
         <v>297</v>
@@ -8309,7 +8309,7 @@
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="B568" t="n">
         <v>297</v>
@@ -8323,7 +8323,7 @@
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="B569" t="n">
         <v>297</v>
@@ -8337,7 +8337,7 @@
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="B570" t="n">
         <v>297</v>
@@ -8351,7 +8351,7 @@
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="B571" t="n">
         <v>297</v>
@@ -8365,7 +8365,7 @@
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="B572" t="n">
         <v>297</v>
@@ -8379,7 +8379,7 @@
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="B573" t="n">
         <v>297</v>
@@ -8393,7 +8393,7 @@
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="B574" t="n">
         <v>297</v>
@@ -8407,7 +8407,7 @@
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="B575" t="n">
         <v>297</v>
@@ -8421,7 +8421,7 @@
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="B576" t="n">
         <v>297</v>
@@ -8435,7 +8435,7 @@
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="B577" t="n">
         <v>297</v>
@@ -8449,7 +8449,7 @@
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="B578" t="n">
         <v>297</v>
@@ -8463,7 +8463,7 @@
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="B579" t="n">
         <v>297</v>
@@ -8477,7 +8477,7 @@
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="B580" t="n">
         <v>297</v>
@@ -8491,7 +8491,7 @@
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="B581" t="n">
         <v>297</v>
@@ -8505,7 +8505,7 @@
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="B582" t="n">
         <v>297</v>
@@ -8519,7 +8519,7 @@
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="B583" t="n">
         <v>298</v>
@@ -8533,7 +8533,7 @@
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="B584" t="n">
         <v>298</v>
@@ -8547,7 +8547,7 @@
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="B585" t="n">
         <v>298</v>
@@ -8561,7 +8561,7 @@
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="B586" t="n">
         <v>298</v>
@@ -8575,7 +8575,7 @@
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="B587" t="n">
         <v>298</v>
@@ -8589,7 +8589,7 @@
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="B588" t="n">
         <v>298</v>
@@ -8603,7 +8603,7 @@
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="B589" t="n">
         <v>298</v>
@@ -8617,7 +8617,7 @@
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="B590" t="n">
         <v>298</v>
@@ -8631,7 +8631,7 @@
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="B591" t="n">
         <v>298</v>
@@ -8645,7 +8645,7 @@
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="B592" t="n">
         <v>298</v>
@@ -8659,7 +8659,7 @@
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="B593" t="n">
         <v>298</v>
@@ -8673,7 +8673,7 @@
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="B594" t="n">
         <v>298</v>
@@ -8687,7 +8687,7 @@
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="B595" t="n">
         <v>298</v>
@@ -8701,7 +8701,7 @@
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="B596" t="n">
         <v>298</v>
@@ -8715,7 +8715,7 @@
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="B597" t="n">
         <v>298</v>
@@ -8729,7 +8729,7 @@
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="B598" t="n">
         <v>298</v>
@@ -8743,7 +8743,7 @@
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="B599" t="n">
         <v>298</v>
@@ -8757,7 +8757,7 @@
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="B600" t="n">
         <v>298</v>
@@ -8771,7 +8771,7 @@
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="B601" t="n">
         <v>298</v>
@@ -8785,7 +8785,7 @@
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="B602" t="n">
         <v>298</v>
@@ -8799,7 +8799,7 @@
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="B603" t="n">
         <v>298</v>
@@ -8813,7 +8813,7 @@
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="B604" t="n">
         <v>298</v>
@@ -8827,7 +8827,7 @@
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="B605" t="n">
         <v>298</v>
@@ -8841,7 +8841,7 @@
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="B606" t="n">
         <v>298</v>
@@ -8855,7 +8855,7 @@
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="B607" t="n">
         <v>299</v>
@@ -8869,7 +8869,7 @@
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="B608" t="n">
         <v>299</v>
@@ -8883,7 +8883,7 @@
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="B609" t="n">
         <v>299</v>
@@ -8897,7 +8897,7 @@
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="B610" t="n">
         <v>299</v>
@@ -8911,7 +8911,7 @@
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="B611" t="n">
         <v>299</v>
@@ -8925,7 +8925,7 @@
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="B612" t="n">
         <v>299</v>
@@ -8939,7 +8939,7 @@
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="B613" t="n">
         <v>299</v>
@@ -8953,7 +8953,7 @@
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="B614" t="n">
         <v>299</v>
@@ -8967,7 +8967,7 @@
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="B615" t="n">
         <v>299</v>
@@ -8981,7 +8981,7 @@
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="B616" t="n">
         <v>299</v>
@@ -8995,7 +8995,7 @@
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="B617" t="n">
         <v>299</v>
@@ -9009,7 +9009,7 @@
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="B618" t="n">
         <v>299</v>
@@ -9023,7 +9023,7 @@
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="B619" t="n">
         <v>299</v>
@@ -9037,7 +9037,7 @@
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="B620" t="n">
         <v>299</v>
@@ -9051,7 +9051,7 @@
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="B621" t="n">
         <v>299</v>
@@ -9065,7 +9065,7 @@
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="B622" t="n">
         <v>299</v>
@@ -9079,7 +9079,7 @@
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="B623" t="n">
         <v>299</v>
@@ -9093,7 +9093,7 @@
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="B624" t="n">
         <v>299</v>
@@ -9107,7 +9107,7 @@
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="B625" t="n">
         <v>299</v>
@@ -9121,7 +9121,7 @@
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="B626" t="n">
         <v>299</v>
@@ -9135,7 +9135,7 @@
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="B627" t="n">
         <v>299</v>
@@ -9149,7 +9149,7 @@
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="B628" t="n">
         <v>299</v>
@@ -9163,7 +9163,7 @@
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="B629" t="n">
         <v>299</v>
@@ -9177,7 +9177,7 @@
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="B630" t="n">
         <v>299</v>
@@ -9191,7 +9191,7 @@
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="B631" t="n">
         <v>300</v>
@@ -9205,7 +9205,7 @@
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="B632" t="n">
         <v>300</v>
@@ -9219,7 +9219,7 @@
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="B633" t="n">
         <v>300</v>
@@ -9233,7 +9233,7 @@
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="B634" t="n">
         <v>300</v>
@@ -9247,7 +9247,7 @@
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="B635" t="n">
         <v>300</v>
@@ -9261,7 +9261,7 @@
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="B636" t="n">
         <v>300</v>
@@ -9275,7 +9275,7 @@
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="B637" t="n">
         <v>300</v>
@@ -9289,7 +9289,7 @@
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="B638" t="n">
         <v>300</v>
@@ -9303,7 +9303,7 @@
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="B639" t="n">
         <v>300</v>
@@ -9317,7 +9317,7 @@
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="B640" t="n">
         <v>300</v>
@@ -9331,7 +9331,7 @@
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="B641" t="n">
         <v>300</v>
@@ -9345,7 +9345,7 @@
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="B642" t="n">
         <v>300</v>
@@ -9359,7 +9359,7 @@
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="B643" t="n">
         <v>300</v>
@@ -9373,7 +9373,7 @@
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="B644" t="n">
         <v>300</v>
@@ -9387,7 +9387,7 @@
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="B645" t="n">
         <v>300</v>
@@ -9401,7 +9401,7 @@
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="B646" t="n">
         <v>300</v>
@@ -9415,7 +9415,7 @@
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="B647" t="n">
         <v>300</v>
@@ -9429,7 +9429,7 @@
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="B648" t="n">
         <v>300</v>
@@ -9443,7 +9443,7 @@
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="B649" t="n">
         <v>300</v>
@@ -9457,7 +9457,7 @@
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="B650" t="n">
         <v>300</v>
@@ -9471,7 +9471,7 @@
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="B651" t="n">
         <v>300</v>
@@ -9485,7 +9485,7 @@
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="B652" t="n">
         <v>300</v>
@@ -9499,7 +9499,7 @@
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="B653" t="n">
         <v>300</v>
@@ -9513,7 +9513,7 @@
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="B654" t="n">
         <v>300</v>
@@ -9527,7 +9527,7 @@
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="B655" t="n">
         <v>301</v>
@@ -9541,7 +9541,7 @@
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="B656" t="n">
         <v>301</v>
@@ -9555,7 +9555,7 @@
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="B657" t="n">
         <v>301</v>
@@ -9569,7 +9569,7 @@
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="B658" t="n">
         <v>301</v>
@@ -9583,7 +9583,7 @@
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="B659" t="n">
         <v>301</v>
@@ -9597,7 +9597,7 @@
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="B660" t="n">
         <v>301</v>
@@ -9611,7 +9611,7 @@
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="B661" t="n">
         <v>301</v>
@@ -9625,7 +9625,7 @@
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="B662" t="n">
         <v>301</v>
@@ -9639,7 +9639,7 @@
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="B663" t="n">
         <v>301</v>
@@ -9653,7 +9653,7 @@
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="B664" t="n">
         <v>301</v>
@@ -9667,7 +9667,7 @@
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="B665" t="n">
         <v>301</v>
@@ -9681,7 +9681,7 @@
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="B666" t="n">
         <v>301</v>
@@ -9695,7 +9695,7 @@
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="B667" t="n">
         <v>301</v>
@@ -9709,7 +9709,7 @@
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="B668" t="n">
         <v>301</v>
@@ -9723,7 +9723,7 @@
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="B669" t="n">
         <v>301</v>
@@ -9737,7 +9737,7 @@
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="B670" t="n">
         <v>301</v>
@@ -9751,7 +9751,7 @@
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="B671" t="n">
         <v>301</v>
@@ -9765,7 +9765,7 @@
     </row>
     <row r="672">
       <c r="A672" s="1" t="n">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="B672" t="n">
         <v>301</v>
@@ -9779,7 +9779,7 @@
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="B673" t="n">
         <v>301</v>
@@ -9793,7 +9793,7 @@
     </row>
     <row r="674">
       <c r="A674" s="1" t="n">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="B674" t="n">
         <v>301</v>
@@ -9807,7 +9807,7 @@
     </row>
     <row r="675">
       <c r="A675" s="1" t="n">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="B675" t="n">
         <v>301</v>
@@ -9821,7 +9821,7 @@
     </row>
     <row r="676">
       <c r="A676" s="1" t="n">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="B676" t="n">
         <v>301</v>
@@ -9835,7 +9835,7 @@
     </row>
     <row r="677">
       <c r="A677" s="1" t="n">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="B677" t="n">
         <v>301</v>
@@ -9849,7 +9849,7 @@
     </row>
     <row r="678">
       <c r="A678" s="1" t="n">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="B678" t="n">
         <v>301</v>
@@ -9863,7 +9863,7 @@
     </row>
     <row r="679">
       <c r="A679" s="1" t="n">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="B679" t="n">
         <v>302</v>
@@ -9877,7 +9877,7 @@
     </row>
     <row r="680">
       <c r="A680" s="1" t="n">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="B680" t="n">
         <v>302</v>
@@ -9891,7 +9891,7 @@
     </row>
     <row r="681">
       <c r="A681" s="1" t="n">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="B681" t="n">
         <v>302</v>
@@ -9905,7 +9905,7 @@
     </row>
     <row r="682">
       <c r="A682" s="1" t="n">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="B682" t="n">
         <v>302</v>
@@ -9919,7 +9919,7 @@
     </row>
     <row r="683">
       <c r="A683" s="1" t="n">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="B683" t="n">
         <v>302</v>
@@ -9933,7 +9933,7 @@
     </row>
     <row r="684">
       <c r="A684" s="1" t="n">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="B684" t="n">
         <v>302</v>
@@ -9947,7 +9947,7 @@
     </row>
     <row r="685">
       <c r="A685" s="1" t="n">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="B685" t="n">
         <v>302</v>
@@ -9961,7 +9961,7 @@
     </row>
     <row r="686">
       <c r="A686" s="1" t="n">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="B686" t="n">
         <v>302</v>
@@ -9975,7 +9975,7 @@
     </row>
     <row r="687">
       <c r="A687" s="1" t="n">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="B687" t="n">
         <v>302</v>
@@ -9989,7 +9989,7 @@
     </row>
     <row r="688">
       <c r="A688" s="1" t="n">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="B688" t="n">
         <v>302</v>
@@ -10003,7 +10003,7 @@
     </row>
     <row r="689">
       <c r="A689" s="1" t="n">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="B689" t="n">
         <v>302</v>
@@ -10017,7 +10017,7 @@
     </row>
     <row r="690">
       <c r="A690" s="1" t="n">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="B690" t="n">
         <v>302</v>
@@ -10031,7 +10031,7 @@
     </row>
     <row r="691">
       <c r="A691" s="1" t="n">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="B691" t="n">
         <v>302</v>
@@ -10045,7 +10045,7 @@
     </row>
     <row r="692">
       <c r="A692" s="1" t="n">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="B692" t="n">
         <v>302</v>
@@ -10059,7 +10059,7 @@
     </row>
     <row r="693">
       <c r="A693" s="1" t="n">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="B693" t="n">
         <v>302</v>
@@ -10073,7 +10073,7 @@
     </row>
     <row r="694">
       <c r="A694" s="1" t="n">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="B694" t="n">
         <v>302</v>
@@ -10087,7 +10087,7 @@
     </row>
     <row r="695">
       <c r="A695" s="1" t="n">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="B695" t="n">
         <v>302</v>
@@ -10101,7 +10101,7 @@
     </row>
     <row r="696">
       <c r="A696" s="1" t="n">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="B696" t="n">
         <v>302</v>
@@ -10115,7 +10115,7 @@
     </row>
     <row r="697">
       <c r="A697" s="1" t="n">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="B697" t="n">
         <v>302</v>
@@ -10129,7 +10129,7 @@
     </row>
     <row r="698">
       <c r="A698" s="1" t="n">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="B698" t="n">
         <v>302</v>
@@ -10143,7 +10143,7 @@
     </row>
     <row r="699">
       <c r="A699" s="1" t="n">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="B699" t="n">
         <v>302</v>
@@ -10157,7 +10157,7 @@
     </row>
     <row r="700">
       <c r="A700" s="1" t="n">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="B700" t="n">
         <v>302</v>
@@ -10171,7 +10171,7 @@
     </row>
     <row r="701">
       <c r="A701" s="1" t="n">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="B701" t="n">
         <v>302</v>
@@ -10185,7 +10185,7 @@
     </row>
     <row r="702">
       <c r="A702" s="1" t="n">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="B702" t="n">
         <v>302</v>
@@ -10199,7 +10199,7 @@
     </row>
     <row r="703">
       <c r="A703" s="1" t="n">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="B703" t="n">
         <v>303</v>
@@ -10213,7 +10213,7 @@
     </row>
     <row r="704">
       <c r="A704" s="1" t="n">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="B704" t="n">
         <v>303</v>
@@ -10227,7 +10227,7 @@
     </row>
     <row r="705">
       <c r="A705" s="1" t="n">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="B705" t="n">
         <v>303</v>
@@ -10241,7 +10241,7 @@
     </row>
     <row r="706">
       <c r="A706" s="1" t="n">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="B706" t="n">
         <v>303</v>
@@ -10255,7 +10255,7 @@
     </row>
     <row r="707">
       <c r="A707" s="1" t="n">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="B707" t="n">
         <v>303</v>
@@ -10269,7 +10269,7 @@
     </row>
     <row r="708">
       <c r="A708" s="1" t="n">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="B708" t="n">
         <v>303</v>
@@ -10283,7 +10283,7 @@
     </row>
     <row r="709">
       <c r="A709" s="1" t="n">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="B709" t="n">
         <v>303</v>
@@ -10297,7 +10297,7 @@
     </row>
     <row r="710">
       <c r="A710" s="1" t="n">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="B710" t="n">
         <v>303</v>
@@ -10311,7 +10311,7 @@
     </row>
     <row r="711">
       <c r="A711" s="1" t="n">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="B711" t="n">
         <v>303</v>
@@ -10325,7 +10325,7 @@
     </row>
     <row r="712">
       <c r="A712" s="1" t="n">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="B712" t="n">
         <v>303</v>
@@ -10339,7 +10339,7 @@
     </row>
     <row r="713">
       <c r="A713" s="1" t="n">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="B713" t="n">
         <v>303</v>
@@ -10353,7 +10353,7 @@
     </row>
     <row r="714">
       <c r="A714" s="1" t="n">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="B714" t="n">
         <v>303</v>
@@ -10367,7 +10367,7 @@
     </row>
     <row r="715">
       <c r="A715" s="1" t="n">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="B715" t="n">
         <v>303</v>
@@ -10381,7 +10381,7 @@
     </row>
     <row r="716">
       <c r="A716" s="1" t="n">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="B716" t="n">
         <v>303</v>
@@ -10395,7 +10395,7 @@
     </row>
     <row r="717">
       <c r="A717" s="1" t="n">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="B717" t="n">
         <v>303</v>
@@ -10409,7 +10409,7 @@
     </row>
     <row r="718">
       <c r="A718" s="1" t="n">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="B718" t="n">
         <v>303</v>
@@ -10423,7 +10423,7 @@
     </row>
     <row r="719">
       <c r="A719" s="1" t="n">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="B719" t="n">
         <v>303</v>
@@ -10437,7 +10437,7 @@
     </row>
     <row r="720">
       <c r="A720" s="1" t="n">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="B720" t="n">
         <v>303</v>
@@ -10451,7 +10451,7 @@
     </row>
     <row r="721">
       <c r="A721" s="1" t="n">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="B721" t="n">
         <v>303</v>
@@ -10465,7 +10465,7 @@
     </row>
     <row r="722">
       <c r="A722" s="1" t="n">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="B722" t="n">
         <v>303</v>
@@ -10479,7 +10479,7 @@
     </row>
     <row r="723">
       <c r="A723" s="1" t="n">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="B723" t="n">
         <v>303</v>
@@ -10493,7 +10493,7 @@
     </row>
     <row r="724">
       <c r="A724" s="1" t="n">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="B724" t="n">
         <v>303</v>
@@ -10507,7 +10507,7 @@
     </row>
     <row r="725">
       <c r="A725" s="1" t="n">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="B725" t="n">
         <v>303</v>
@@ -10521,7 +10521,7 @@
     </row>
     <row r="726">
       <c r="A726" s="1" t="n">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="B726" t="n">
         <v>303</v>
@@ -10535,7 +10535,7 @@
     </row>
     <row r="727">
       <c r="A727" s="1" t="n">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="B727" t="n">
         <v>304</v>
@@ -10549,7 +10549,7 @@
     </row>
     <row r="728">
       <c r="A728" s="1" t="n">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="B728" t="n">
         <v>304</v>
@@ -10563,7 +10563,7 @@
     </row>
     <row r="729">
       <c r="A729" s="1" t="n">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="B729" t="n">
         <v>304</v>
@@ -10577,7 +10577,7 @@
     </row>
     <row r="730">
       <c r="A730" s="1" t="n">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="B730" t="n">
         <v>304</v>
@@ -10591,7 +10591,7 @@
     </row>
     <row r="731">
       <c r="A731" s="1" t="n">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="B731" t="n">
         <v>304</v>
@@ -10605,7 +10605,7 @@
     </row>
     <row r="732">
       <c r="A732" s="1" t="n">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="B732" t="n">
         <v>304</v>
@@ -10619,7 +10619,7 @@
     </row>
     <row r="733">
       <c r="A733" s="1" t="n">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="B733" t="n">
         <v>304</v>
@@ -10633,7 +10633,7 @@
     </row>
     <row r="734">
       <c r="A734" s="1" t="n">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="B734" t="n">
         <v>304</v>
@@ -10647,7 +10647,7 @@
     </row>
     <row r="735">
       <c r="A735" s="1" t="n">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="B735" t="n">
         <v>304</v>
@@ -10661,7 +10661,7 @@
     </row>
     <row r="736">
       <c r="A736" s="1" t="n">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="B736" t="n">
         <v>304</v>
@@ -10675,7 +10675,7 @@
     </row>
     <row r="737">
       <c r="A737" s="1" t="n">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="B737" t="n">
         <v>304</v>
@@ -10689,7 +10689,7 @@
     </row>
     <row r="738">
       <c r="A738" s="1" t="n">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="B738" t="n">
         <v>304</v>
@@ -10703,7 +10703,7 @@
     </row>
     <row r="739">
       <c r="A739" s="1" t="n">
-        <v>729</v>
+        <v>737</v>
       </c>
       <c r="B739" t="n">
         <v>304</v>
@@ -10717,7 +10717,7 @@
     </row>
     <row r="740">
       <c r="A740" s="1" t="n">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="B740" t="n">
         <v>304</v>
@@ -10731,7 +10731,7 @@
     </row>
     <row r="741">
       <c r="A741" s="1" t="n">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="B741" t="n">
         <v>304</v>
@@ -10745,7 +10745,7 @@
     </row>
     <row r="742">
       <c r="A742" s="1" t="n">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="B742" t="n">
         <v>304</v>
@@ -10759,7 +10759,7 @@
     </row>
     <row r="743">
       <c r="A743" s="1" t="n">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="B743" t="n">
         <v>304</v>
@@ -10773,7 +10773,7 @@
     </row>
     <row r="744">
       <c r="A744" s="1" t="n">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="B744" t="n">
         <v>304</v>
@@ -10787,7 +10787,7 @@
     </row>
     <row r="745">
       <c r="A745" s="1" t="n">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="B745" t="n">
         <v>304</v>
